--- a/dtpu_configurations/only_integer16/30mhz/mxu_12x12/utilization.xlsx
+++ b/dtpu_configurations/only_integer16/30mhz/mxu_12x12/utilization.xlsx
@@ -154,13 +154,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>23.941730499267578</v>
+        <v>29.879697799682617</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>6.0804595947265625</v>
+        <v>6.816092014312744</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>16.947368621826172</v>
+        <v>21.406015396118164</v>
       </c>
       <c r="E2" t="n" s="4">
         <v>57.85714340209961</v>
